--- a/formats/excel/SSR/2025/Formats RHA 25.xlsx
+++ b/formats/excel/SSR/2025/Formats RHA 25.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10919935\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\3_Outils\installations_statisticiens\GitHub\formats_pmeasyr_ajout_srpsa\formats_pmeasyr\formats\excel\SSR\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="156">
   <si>
     <t>libelle</t>
   </si>
@@ -370,9 +370,6 @@
     <t>NBCSARR</t>
   </si>
   <si>
-    <t>Nombre d'actes CCAM dans ce RHS (n3)</t>
-  </si>
-  <si>
     <t>NBCCAM</t>
   </si>
   <si>
@@ -491,25 +488,27 @@
   </si>
   <si>
     <t>JOURNEES_HWE</t>
+  </si>
+  <si>
+    <t>Nombre d'actes CSAR dans ce RHS (n3)</t>
+  </si>
+  <si>
+    <t>Nombre d'actes CCAM dans ce RHS (n4)</t>
+  </si>
+  <si>
+    <t>NBCSAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -590,14 +589,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -881,19 +879,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="45.875" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1088,11 +1086,11 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>137</v>
+      <c r="A9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1107,7 +1105,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1217,11 +1215,11 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f t="shared" ref="D14" si="1">E13+1</f>
         <v>31</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f t="shared" ref="E14" si="2">D14+C14-1</f>
         <v>32</v>
       </c>
@@ -1243,11 +1241,11 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f t="shared" ref="D15:D17" si="3">E14+1</f>
         <v>33</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" ref="E15:E17" si="4">D15+C15-1</f>
         <v>34</v>
       </c>
@@ -1269,11 +1267,11 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
@@ -1286,20 +1284,20 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
@@ -1321,11 +1319,11 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <f t="shared" ref="D18:D23" si="5">E17+1</f>
         <v>37</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f t="shared" ref="E18:E23" si="6">D18+C18-1</f>
         <v>37</v>
       </c>
@@ -1347,11 +1345,11 @@
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
@@ -1373,11 +1371,11 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f t="shared" si="6"/>
         <v>41</v>
       </c>
@@ -1399,11 +1397,11 @@
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
@@ -1425,11 +1423,11 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <f t="shared" si="6"/>
         <v>46</v>
       </c>
@@ -1451,11 +1449,11 @@
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
@@ -1468,20 +1466,20 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>1</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <f t="shared" ref="D24" si="7">E23+1</f>
         <v>50</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <f t="shared" ref="E24" si="8">D24+C24-1</f>
         <v>50</v>
       </c>
@@ -1503,12 +1501,12 @@
       <c r="C25">
         <v>3</v>
       </c>
-      <c r="D25" s="3">
-        <f t="shared" ref="D25:D70" si="9">E24+1</f>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:D71" si="9">E24+1</f>
         <v>51</v>
       </c>
-      <c r="E25" s="3">
-        <f t="shared" ref="E25:E70" si="10">D25+C25-1</f>
+      <c r="E25" s="2">
+        <f t="shared" ref="E25:E71" si="10">D25+C25-1</f>
         <v>53</v>
       </c>
       <c r="F25">
@@ -1520,17 +1518,17 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C26">
         <v>12</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <f t="shared" si="9"/>
         <v>54</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
@@ -1538,7 +1536,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1552,16 +1550,16 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <f t="shared" si="9"/>
         <v>66</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27:F69" si="11">C27+D27-D28</f>
+        <f t="shared" ref="F27:F77" si="11">C27+D27-D28</f>
         <v>0</v>
       </c>
       <c r="G27" t="s">
@@ -1578,11 +1576,11 @@
       <c r="C28">
         <v>7</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <f t="shared" si="9"/>
         <v>67</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
@@ -1604,11 +1602,11 @@
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <f t="shared" si="9"/>
         <v>74</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <f t="shared" si="10"/>
         <v>76</v>
       </c>
@@ -1622,7 +1620,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
@@ -1630,11 +1628,11 @@
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <f t="shared" si="9"/>
         <v>77</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <f t="shared" si="10"/>
         <v>79</v>
       </c>
@@ -1648,24 +1646,24 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
-      <c r="D31" s="3">
-        <f t="shared" si="9"/>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:D76" si="12">E30+1</f>
         <v>80</v>
       </c>
-      <c r="E31" s="3">
-        <f t="shared" si="10"/>
+      <c r="E31" s="2">
+        <f t="shared" ref="E31:E76" si="13">D31+C31-1</f>
         <v>82</v>
       </c>
       <c r="F31">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="F31:F76" si="14">C31+D31-D32</f>
         <v>0</v>
       </c>
       <c r="G31" t="s">
@@ -1682,16 +1680,16 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="3">
-        <f t="shared" si="9"/>
+      <c r="D32" s="2">
+        <f t="shared" si="12"/>
         <v>83</v>
       </c>
-      <c r="E32" s="3">
-        <f t="shared" si="10"/>
+      <c r="E32" s="2">
+        <f t="shared" si="13"/>
         <v>83</v>
       </c>
       <c r="F32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G32" t="s">
@@ -1708,16 +1706,16 @@
       <c r="C33">
         <v>5</v>
       </c>
-      <c r="D33" s="3">
-        <f t="shared" si="9"/>
+      <c r="D33" s="2">
+        <f t="shared" si="12"/>
         <v>84</v>
       </c>
-      <c r="E33" s="3">
-        <f t="shared" si="10"/>
+      <c r="E33" s="2">
+        <f t="shared" si="13"/>
         <v>88</v>
       </c>
       <c r="F33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G33" t="s">
@@ -1726,24 +1724,24 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
         <v>128</v>
-      </c>
-      <c r="B34" t="s">
-        <v>129</v>
       </c>
       <c r="C34">
         <v>5</v>
       </c>
-      <c r="D34" s="3">
-        <f t="shared" si="9"/>
+      <c r="D34" s="2">
+        <f t="shared" si="12"/>
         <v>89</v>
       </c>
-      <c r="E34" s="3">
-        <f t="shared" si="10"/>
+      <c r="E34" s="2">
+        <f t="shared" si="13"/>
         <v>93</v>
       </c>
       <c r="F34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G34" t="s">
@@ -1760,16 +1758,16 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" s="3">
-        <f t="shared" si="9"/>
+      <c r="D35" s="2">
+        <f t="shared" si="12"/>
         <v>94</v>
       </c>
-      <c r="E35" s="3">
-        <f t="shared" si="10"/>
+      <c r="E35" s="2">
+        <f t="shared" si="13"/>
         <v>97</v>
       </c>
       <c r="F35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G35" t="s">
@@ -1778,21 +1776,21 @@
     </row>
     <row r="36" spans="1:7">
       <c r="B36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36">
         <v>6</v>
       </c>
-      <c r="D36" s="3">
-        <f t="shared" si="9"/>
+      <c r="D36" s="2">
+        <f t="shared" si="12"/>
         <v>98</v>
       </c>
-      <c r="E36" s="3">
-        <f t="shared" si="10"/>
+      <c r="E36" s="2">
+        <f t="shared" si="13"/>
         <v>103</v>
       </c>
       <c r="F36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G36" t="s">
@@ -1809,16 +1807,16 @@
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" s="3">
-        <f t="shared" si="9"/>
+      <c r="D37" s="2">
+        <f t="shared" si="12"/>
         <v>104</v>
       </c>
-      <c r="E37" s="3">
-        <f t="shared" si="10"/>
+      <c r="E37" s="2">
+        <f t="shared" si="13"/>
         <v>104</v>
       </c>
       <c r="F37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G37" t="s">
@@ -1827,24 +1825,24 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" t="s">
         <v>131</v>
-      </c>
-      <c r="B38" t="s">
-        <v>132</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
-      <c r="D38" s="3">
-        <f t="shared" si="9"/>
+      <c r="D38" s="2">
+        <f t="shared" si="12"/>
         <v>105</v>
       </c>
-      <c r="E38" s="3">
-        <f t="shared" si="10"/>
+      <c r="E38" s="2">
+        <f t="shared" si="13"/>
         <v>108</v>
       </c>
       <c r="F38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G38" t="s">
@@ -1861,16 +1859,16 @@
       <c r="C39">
         <v>3</v>
       </c>
-      <c r="D39" s="3">
-        <f t="shared" si="9"/>
+      <c r="D39" s="2">
+        <f t="shared" si="12"/>
         <v>109</v>
       </c>
-      <c r="E39" s="3">
-        <f t="shared" si="10"/>
+      <c r="E39" s="2">
+        <f t="shared" si="13"/>
         <v>111</v>
       </c>
       <c r="F39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G39" t="s">
@@ -1887,16 +1885,16 @@
       <c r="C40">
         <v>9</v>
       </c>
-      <c r="D40" s="3">
-        <f t="shared" si="9"/>
+      <c r="D40" s="2">
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
-      <c r="E40" s="3">
-        <f t="shared" si="10"/>
+      <c r="E40" s="2">
+        <f t="shared" si="13"/>
         <v>120</v>
       </c>
       <c r="F40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G40" t="s">
@@ -1913,16 +1911,16 @@
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" s="3">
-        <f t="shared" si="9"/>
+      <c r="D41" s="2">
+        <f t="shared" si="12"/>
         <v>121</v>
       </c>
-      <c r="E41" s="3">
-        <f t="shared" si="10"/>
+      <c r="E41" s="2">
+        <f t="shared" si="13"/>
         <v>121</v>
       </c>
       <c r="F41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G41" t="s">
@@ -1939,16 +1937,16 @@
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" s="3">
-        <f t="shared" si="9"/>
+      <c r="D42" s="2">
+        <f t="shared" si="12"/>
         <v>122</v>
       </c>
-      <c r="E42" s="3">
-        <f t="shared" si="10"/>
+      <c r="E42" s="2">
+        <f t="shared" si="13"/>
         <v>122</v>
       </c>
       <c r="F42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G42" t="s">
@@ -1965,16 +1963,16 @@
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" s="3">
-        <f t="shared" si="9"/>
+      <c r="D43" s="2">
+        <f t="shared" si="12"/>
         <v>123</v>
       </c>
-      <c r="E43" s="3">
-        <f t="shared" si="10"/>
+      <c r="E43" s="2">
+        <f t="shared" si="13"/>
         <v>123</v>
       </c>
       <c r="F43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G43" t="s">
@@ -1991,16 +1989,16 @@
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" s="3">
-        <f t="shared" si="9"/>
+      <c r="D44" s="2">
+        <f t="shared" si="12"/>
         <v>124</v>
       </c>
-      <c r="E44" s="3">
-        <f t="shared" si="10"/>
+      <c r="E44" s="2">
+        <f t="shared" si="13"/>
         <v>124</v>
       </c>
       <c r="F44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G44" t="s">
@@ -2009,24 +2007,24 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
         <v>133</v>
-      </c>
-      <c r="B45" t="s">
-        <v>134</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45" s="3">
-        <f t="shared" si="9"/>
+      <c r="D45" s="2">
+        <f t="shared" si="12"/>
         <v>125</v>
       </c>
-      <c r="E45" s="3">
-        <f t="shared" si="10"/>
+      <c r="E45" s="2">
+        <f t="shared" si="13"/>
         <v>126</v>
       </c>
       <c r="F45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G45" t="s">
@@ -2035,24 +2033,24 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" t="s">
         <v>135</v>
-      </c>
-      <c r="B46" t="s">
-        <v>136</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
-      <c r="D46" s="3">
-        <f t="shared" si="9"/>
+      <c r="D46" s="2">
+        <f t="shared" si="12"/>
         <v>127</v>
       </c>
-      <c r="E46" s="3">
-        <f t="shared" si="10"/>
+      <c r="E46" s="2">
+        <f t="shared" si="13"/>
         <v>130</v>
       </c>
       <c r="F46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G46" t="s">
@@ -2069,16 +2067,16 @@
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" s="3">
-        <f t="shared" si="9"/>
+      <c r="D47" s="2">
+        <f t="shared" si="12"/>
         <v>131</v>
       </c>
-      <c r="E47" s="3">
-        <f t="shared" si="10"/>
+      <c r="E47" s="2">
+        <f t="shared" si="13"/>
         <v>131</v>
       </c>
       <c r="F47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G47" t="s">
@@ -2095,16 +2093,16 @@
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48" s="3">
-        <f t="shared" si="9"/>
+      <c r="D48" s="2">
+        <f t="shared" si="12"/>
         <v>132</v>
       </c>
-      <c r="E48" s="3">
-        <f t="shared" si="10"/>
+      <c r="E48" s="2">
+        <f t="shared" si="13"/>
         <v>132</v>
       </c>
       <c r="F48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G48" t="s">
@@ -2121,16 +2119,16 @@
       <c r="C49">
         <v>4</v>
       </c>
-      <c r="D49" s="3">
-        <f t="shared" si="9"/>
+      <c r="D49" s="2">
+        <f t="shared" si="12"/>
         <v>133</v>
       </c>
-      <c r="E49" s="3">
-        <f t="shared" si="10"/>
+      <c r="E49" s="2">
+        <f t="shared" si="13"/>
         <v>136</v>
       </c>
       <c r="F49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G49" t="s">
@@ -2147,16 +2145,16 @@
       <c r="C50">
         <v>6</v>
       </c>
-      <c r="D50" s="3">
-        <f t="shared" si="9"/>
+      <c r="D50" s="2">
+        <f t="shared" si="12"/>
         <v>137</v>
       </c>
-      <c r="E50" s="3">
-        <f t="shared" si="10"/>
+      <c r="E50" s="2">
+        <f t="shared" si="13"/>
         <v>142</v>
       </c>
       <c r="F50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G50" t="s">
@@ -2168,21 +2166,21 @@
         <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C51">
         <v>5</v>
       </c>
-      <c r="D51" s="3">
-        <f t="shared" si="9"/>
+      <c r="D51" s="2">
+        <f t="shared" si="12"/>
         <v>143</v>
       </c>
-      <c r="E51" s="3">
-        <f t="shared" si="10"/>
+      <c r="E51" s="2">
+        <f t="shared" si="13"/>
         <v>147</v>
       </c>
       <c r="F51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G51" t="s">
@@ -2199,16 +2197,16 @@
       <c r="C52">
         <v>2</v>
       </c>
-      <c r="D52" s="3">
-        <f t="shared" si="9"/>
+      <c r="D52" s="2">
+        <f t="shared" si="12"/>
         <v>148</v>
       </c>
-      <c r="E52" s="3">
-        <f t="shared" si="10"/>
+      <c r="E52" s="2">
+        <f t="shared" si="13"/>
         <v>149</v>
       </c>
       <c r="F52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G52" t="s">
@@ -2225,16 +2223,16 @@
       <c r="C53">
         <v>4</v>
       </c>
-      <c r="D53" s="3">
-        <f t="shared" si="9"/>
+      <c r="D53" s="2">
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
-      <c r="E53" s="3">
-        <f t="shared" si="10"/>
+      <c r="E53" s="2">
+        <f t="shared" si="13"/>
         <v>153</v>
       </c>
       <c r="F53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G53" t="s">
@@ -2249,18 +2247,18 @@
         <v>92</v>
       </c>
       <c r="C54">
-        <v>6</v>
-      </c>
-      <c r="D54" s="3">
-        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="12"/>
         <v>154</v>
       </c>
-      <c r="E54" s="3">
-        <f t="shared" si="10"/>
-        <v>159</v>
+      <c r="E54" s="2">
+        <f t="shared" si="13"/>
+        <v>162</v>
       </c>
       <c r="F54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G54" t="s">
@@ -2277,16 +2275,16 @@
       <c r="C55">
         <v>6</v>
       </c>
-      <c r="D55" s="3">
-        <f t="shared" si="9"/>
-        <v>160</v>
-      </c>
-      <c r="E55" s="3">
-        <f t="shared" si="10"/>
-        <v>165</v>
+      <c r="D55" s="2">
+        <f t="shared" si="12"/>
+        <v>163</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="13"/>
+        <v>168</v>
       </c>
       <c r="F55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G55" t="s">
@@ -2303,16 +2301,16 @@
       <c r="C56">
         <v>6</v>
       </c>
-      <c r="D56" s="3">
-        <f t="shared" si="9"/>
-        <v>166</v>
-      </c>
-      <c r="E56" s="3">
-        <f t="shared" si="10"/>
-        <v>171</v>
+      <c r="D56" s="2">
+        <f t="shared" si="12"/>
+        <v>169</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="13"/>
+        <v>174</v>
       </c>
       <c r="F56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G56" t="s">
@@ -2329,16 +2327,16 @@
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="D57" s="3">
-        <f t="shared" si="9"/>
-        <v>172</v>
-      </c>
-      <c r="E57" s="3">
-        <f t="shared" si="10"/>
-        <v>172</v>
+      <c r="D57" s="2">
+        <f t="shared" si="12"/>
+        <v>175</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="13"/>
+        <v>175</v>
       </c>
       <c r="F57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G57" t="s">
@@ -2355,16 +2353,16 @@
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58" s="3">
-        <f t="shared" si="9"/>
-        <v>173</v>
-      </c>
-      <c r="E58" s="3">
-        <f t="shared" si="10"/>
-        <v>173</v>
+      <c r="D58" s="2">
+        <f t="shared" si="12"/>
+        <v>176</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="13"/>
+        <v>176</v>
       </c>
       <c r="F58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G58" t="s">
@@ -2381,16 +2379,16 @@
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59" s="3">
-        <f t="shared" si="9"/>
-        <v>174</v>
-      </c>
-      <c r="E59" s="3">
-        <f t="shared" si="10"/>
-        <v>174</v>
+      <c r="D59" s="2">
+        <f t="shared" si="12"/>
+        <v>177</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="13"/>
+        <v>177</v>
       </c>
       <c r="F59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G59" t="s">
@@ -2407,16 +2405,16 @@
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60" s="3">
-        <f t="shared" si="9"/>
-        <v>175</v>
-      </c>
-      <c r="E60" s="3">
-        <f t="shared" si="10"/>
-        <v>175</v>
+      <c r="D60" s="2">
+        <f t="shared" si="12"/>
+        <v>178</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="13"/>
+        <v>178</v>
       </c>
       <c r="F60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G60" t="s">
@@ -2433,16 +2431,16 @@
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61" s="3">
-        <f t="shared" si="9"/>
-        <v>176</v>
-      </c>
-      <c r="E61" s="3">
-        <f t="shared" si="10"/>
-        <v>176</v>
+      <c r="D61" s="2">
+        <f t="shared" si="12"/>
+        <v>179</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="13"/>
+        <v>179</v>
       </c>
       <c r="F61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G61" t="s">
@@ -2459,16 +2457,16 @@
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62" s="3">
-        <f t="shared" si="9"/>
-        <v>177</v>
-      </c>
-      <c r="E62" s="3">
-        <f t="shared" si="10"/>
-        <v>177</v>
+      <c r="D62" s="2">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="13"/>
+        <v>180</v>
       </c>
       <c r="F62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G62" t="s">
@@ -2485,16 +2483,16 @@
       <c r="C63">
         <v>2</v>
       </c>
-      <c r="D63" s="3">
-        <f t="shared" si="9"/>
-        <v>178</v>
-      </c>
-      <c r="E63" s="3">
-        <f t="shared" si="10"/>
-        <v>179</v>
+      <c r="D63" s="2">
+        <f t="shared" si="12"/>
+        <v>181</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="13"/>
+        <v>182</v>
       </c>
       <c r="F63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G63" t="s">
@@ -2511,16 +2509,16 @@
       <c r="C64">
         <v>3</v>
       </c>
-      <c r="D64" s="3">
-        <f t="shared" si="9"/>
-        <v>180</v>
-      </c>
-      <c r="E64" s="3">
-        <f t="shared" si="10"/>
-        <v>182</v>
+      <c r="D64" s="2">
+        <f t="shared" si="12"/>
+        <v>183</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="13"/>
+        <v>185</v>
       </c>
       <c r="F64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G64" t="s">
@@ -2529,24 +2527,24 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65" s="3">
-        <f t="shared" si="9"/>
-        <v>183</v>
-      </c>
-      <c r="E65" s="3">
-        <f t="shared" si="10"/>
-        <v>184</v>
+        <v>3</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="12"/>
+        <v>186</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="13"/>
+        <v>188</v>
       </c>
       <c r="F65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G65" t="s">
@@ -2555,47 +2553,50 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="12"/>
+        <v>189</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="13"/>
+        <v>190</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" t="s">
         <v>115</v>
-      </c>
-      <c r="B66" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" s="3">
-        <f t="shared" si="9"/>
-        <v>185</v>
-      </c>
-      <c r="E66" s="3">
-        <f t="shared" si="10"/>
-        <v>185</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="B67" t="s">
-        <v>130</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67" s="3">
-        <f t="shared" si="9"/>
-        <v>186</v>
-      </c>
-      <c r="E67" s="3">
-        <f t="shared" si="10"/>
-        <v>186</v>
+      <c r="D67" s="2">
+        <f t="shared" si="12"/>
+        <v>191</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" si="13"/>
+        <v>191</v>
       </c>
       <c r="F67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G67" t="s">
@@ -2603,25 +2604,22 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>118</v>
-      </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C68">
-        <v>2</v>
-      </c>
-      <c r="D68" s="3">
-        <f t="shared" si="9"/>
-        <v>187</v>
-      </c>
-      <c r="E68" s="3">
-        <f t="shared" si="10"/>
-        <v>188</v>
-      </c>
-      <c r="F68" s="1">
-        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="12"/>
+        <v>192</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="13"/>
+        <v>192</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G68" t="s">
@@ -2630,24 +2628,24 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
-      <c r="D69" s="3">
-        <f t="shared" si="9"/>
-        <v>189</v>
-      </c>
-      <c r="E69" s="3">
-        <f t="shared" si="10"/>
-        <v>190</v>
-      </c>
-      <c r="F69" s="1">
-        <f t="shared" si="11"/>
+      <c r="D69" s="2">
+        <f t="shared" si="12"/>
+        <v>193</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="13"/>
+        <v>194</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G69" t="s">
@@ -2656,50 +2654,50 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="12"/>
+        <v>195</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="13"/>
+        <v>196</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" t="s">
         <v>122</v>
-      </c>
-      <c r="B70" t="s">
-        <v>123</v>
-      </c>
-      <c r="C70">
-        <v>5</v>
-      </c>
-      <c r="D70" s="3">
-        <f t="shared" si="9"/>
-        <v>191</v>
-      </c>
-      <c r="E70" s="3">
-        <f t="shared" si="10"/>
-        <v>195</v>
-      </c>
-      <c r="F70" s="1">
-        <f t="shared" ref="F70:F76" si="12">C70+D70-D71</f>
-        <v>0</v>
-      </c>
-      <c r="G70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="C71">
         <v>5</v>
       </c>
-      <c r="D71" s="3">
-        <f t="shared" ref="D71:D75" si="13">E70+1</f>
-        <v>196</v>
-      </c>
-      <c r="E71" s="3">
-        <f t="shared" ref="E71:E75" si="14">D71+C71-1</f>
-        <v>200</v>
-      </c>
-      <c r="F71" s="1">
-        <f t="shared" si="12"/>
+      <c r="D71" s="2">
+        <f t="shared" si="12"/>
+        <v>197</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="13"/>
+        <v>201</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G71" t="s">
@@ -2707,123 +2705,149 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="12"/>
+        <v>202</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="13"/>
+        <v>206</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="12"/>
+        <v>207</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="13"/>
+        <v>208</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C74" s="2">
         <v>2</v>
       </c>
-      <c r="D72" s="3">
-        <f t="shared" si="13"/>
-        <v>201</v>
-      </c>
-      <c r="E72" s="3">
-        <f t="shared" si="14"/>
-        <v>202</v>
-      </c>
-      <c r="F72" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="4" t="s">
+      <c r="D74" s="2">
+        <f t="shared" si="12"/>
+        <v>209</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="13"/>
+        <v>210</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C75" s="2">
         <v>2</v>
       </c>
-      <c r="D73" s="3">
-        <f t="shared" si="13"/>
-        <v>203</v>
-      </c>
-      <c r="E73" s="3">
-        <f t="shared" si="14"/>
-        <v>204</v>
-      </c>
-      <c r="F73" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="4" t="s">
+      <c r="D75" s="2">
+        <f t="shared" si="12"/>
+        <v>211</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="13"/>
+        <v>212</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C76" s="2">
         <v>2</v>
       </c>
-      <c r="D74" s="3">
-        <f t="shared" si="13"/>
-        <v>205</v>
-      </c>
-      <c r="E74" s="3">
-        <f t="shared" si="14"/>
-        <v>206</v>
-      </c>
-      <c r="F74" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" s="3">
-        <v>2</v>
-      </c>
-      <c r="D75" s="3">
-        <f t="shared" si="13"/>
-        <v>207</v>
-      </c>
-      <c r="E75" s="3">
-        <f t="shared" si="14"/>
-        <v>208</v>
-      </c>
-      <c r="F75" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="B76" t="s">
-        <v>124</v>
-      </c>
-      <c r="D76" s="3">
-        <f t="shared" ref="D76" si="15">E75+1</f>
-        <v>209</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="1">
-        <f t="shared" si="12"/>
-        <v>209</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="D76" s="2">
+        <f t="shared" si="12"/>
+        <v>213</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" si="13"/>
+        <v>214</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="B77" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" ref="D77" si="15">E76+1</f>
+        <v>215</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77">
+        <f t="shared" si="11"/>
+        <v>215</v>
+      </c>
+      <c r="G77" t="s">
         <v>9</v>
       </c>
     </row>
